--- a/MCPLatitudeAndLongitude.xlsx
+++ b/MCPLatitudeAndLongitude.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Semester 221\Software Engineering\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BK K20\Assignments\Semester 221\Software Engineering\se-uwc\se-uwc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC266AC-3ADE-40E8-AE22-BF66F7528E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,11 +39,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="0.00000000000"/>
-    <numFmt numFmtId="172" formatCode="0.000000000000"/>
-    <numFmt numFmtId="173" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -113,9 +114,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,20 +396,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -419,7 +420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -430,7 +431,7 @@
         <v>106.665916767231</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -441,7 +442,7 @@
         <v>106.663266154958</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -452,7 +453,7 @@
         <v>106.66719339267</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -463,7 +464,7 @@
         <v>106.667284093661</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -474,7 +475,7 @@
         <v>106.656977523526</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -485,7 +486,7 @@
         <v>106.655190599178</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -496,7 +497,7 @@
         <v>106.660531841364</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -507,7 +508,7 @@
         <v>106.665784313171</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -518,7 +519,7 @@
         <v>106.659288627832</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
